--- a/polyline.xlsx
+++ b/polyline.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruno\Documents\PolylineStationOffsetCalculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA3B669-BFAD-4533-A16C-858EFEC3D3AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D8FA0E3-F052-4585-81EA-25A1A47C9921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{09DC0ACD-00D6-4BD3-91D5-4C890450413B}"/>
+    <workbookView xWindow="4500" yWindow="5670" windowWidth="21600" windowHeight="7980" xr2:uid="{09DC0ACD-00D6-4BD3-91D5-4C890450413B}"/>
   </bookViews>
   <sheets>
     <sheet name="polyline" sheetId="1" r:id="rId1"/>
@@ -904,9 +904,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EC85E47-C4A4-4E8E-A80A-C60CC2EE2E32}">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
